--- a/input_urls.xlsx
+++ b/input_urls.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="URLs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,59 +397,1299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A320"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>url</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://recordati-plus.de/de_DE/produkte/ortoton_x000d_</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://recordati-plus.de/de_DE/produkte/corifeo_x000d_</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://recordati-plus.de/de_DE/produkte/lercanidipin-omniapharm_x000d_</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://recordati-plus.de/de_DE/produkte/metoprololtartrat-omniapharm_x000d_</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://recordati-plus.de/de_DE/produkte/betadorm-d_x000d_</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://recordati-plus.de/de_DE/produkte/xitix-lutschtabletten_x000d_</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://recordati-plus.de/de_DE/produkte/jhp-rodler-japanisches-minzol_x000d_</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://recordati-plus.de/de_DE/produkte/rhinopront_x000d_</v>
+        <v>production sitemap</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://recordati-plus.de/de_AT/recordati-article/34_x000d_</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/183_x000d_</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/120_x000d_</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/108_x000d_</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/103_x000d_</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1275_x000d_</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1262_x000d_</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1_x000d_</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/74_x000d_</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/78_x000d_</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1270_x000d_</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/37_x000d_</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/367_x000d_</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/268_x000d_</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/94_x000d_</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/223_x000d_</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/38_x000d_</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/40_x000d_</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/76_x000d_</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/39_x000d_</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/373_x000d_</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/369_x000d_</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/35_x000d_</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/95_x000d_</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/36_x000d_</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/82_x000d_</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/69_x000d_</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1276_x000d_</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/97_x000d_</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/41_x000d_</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/84_x000d_</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/137_x000d_</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/98_x000d_</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/99_x000d_</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/532_x000d_</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/109_x000d_</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/110_x000d_</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/499_x000d_</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/221_x000d_</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/181_x000d_</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/182_x000d_</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/175_x000d_</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/176_x000d_</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/198_x000d_</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/102_x000d_</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/372_x000d_</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/186_x000d_</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/184_x000d_</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/187_x000d_</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/220_x000d_</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1263_x000d_</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/174_x000d_</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/177_x000d_</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/89_x000d_</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/218_x000d_</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/199_x000d_</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1277_x000d_</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/75_x000d_</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/189_x000d_</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/333_x000d_</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/374_x000d_</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/188_x000d_</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/370_x000d_</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/368_x000d_</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/565_x000d_</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/77_x000d_</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1271_x000d_</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1273_x000d_</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/258_x000d_</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/564_x000d_</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/227_x000d_</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1274_x000d_</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/324_x000d_</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/259_x000d_</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/260_x000d_</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1264_x000d_</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/269_x000d_</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/228_x000d_</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/315_x000d_</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/301_x000d_</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/321_x000d_</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/300_x000d_</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/240_x000d_</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/375_x000d_</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/317_x000d_</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/251_x000d_</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/319_x000d_</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/327_x000d_</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/306_x000d_</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/322_x000d_</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/311_x000d_</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/257_x000d_</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/366_x000d_</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/304_x000d_</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/310_x000d_</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/307_x000d_</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/314_x000d_</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/325_x000d_</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/323_x000d_</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/313_x000d_</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/248_x000d_</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/309_x000d_</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/265_x000d_</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/135_x000d_</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/85_x000d_</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/242_x000d_</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/303_x000d_</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/178_x000d_</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1265_x000d_</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/197_x000d_</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/632_x000d_</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/179_x000d_</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/87_x000d_</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/995_x000d_</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1286_x000d_</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/91_x000d_</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/70_x000d_</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/96_x000d_</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1279_x000d_</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/318_x000d_</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/136_x000d_</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/930_x000d_</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/934_x000d_</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1191_x000d_</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/194_x000d_</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/219_x000d_</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/195_x000d_</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/946_x000d_</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/212_x000d_</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/113_x000d_</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/180_x000d_</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/768_x000d_</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/263_x000d_</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/937_x000d_</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1287_x000d_</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/633_x000d_</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/635_x000d_</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/929_x000d_</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/71_x000d_</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/80_x000d_</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/308_x000d_</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/193_x000d_</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/73_x000d_</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/931_x000d_</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/940_x000d_</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/210_x000d_</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/830_x000d_</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/316_x000d_</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/72_x000d_</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/696_x000d_</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/196_x000d_</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/101_x000d_</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1266_x000d_</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/172_x000d_</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/769_x000d_</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/938_x000d_</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/829_x000d_</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/763_x000d_</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/928_x000d_</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/767_x000d_</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/766_x000d_</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/948_x000d_</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/942_x000d_</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1281_x000d_</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/945_x000d_</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/305_x000d_</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/949_x000d_</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/950_x000d_</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/190_x000d_</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/88_x000d_</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/764_x000d_</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/79_x000d_</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/941_x000d_</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/933_x000d_</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/927_x000d_</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/498_x000d_</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1267_x000d_</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/371_x000d_</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1288_x000d_</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/81_x000d_</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/960_x000d_</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1093_x000d_</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1260_x000d_</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/211_x000d_</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/320_x000d_</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/312_x000d_</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/947_x000d_</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/326_x000d_</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/302_x000d_</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/105_x000d_</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/663_x000d_</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1258_x000d_</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1259_x000d_</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/208_x000d_</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/636_x000d_</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/861_x000d_</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/994_x000d_</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/638_x000d_</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1282_x000d_</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/209_x000d_</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/895_x000d_</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/566_x000d_</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/666_x000d_</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/86_x000d_</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/432_x000d_</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/567_x000d_</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/92_x000d_</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1261_x000d_</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1268_x000d_</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1280_x000d_</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/433_x000d_</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/434_x000d_</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/597_x000d_</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/634_x000d_</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1257_x000d_</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/598_x000d_</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/637_x000d_</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/894_x000d_</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/939_x000d_</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/896_x000d_</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/961_x000d_</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/664_x000d_</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/665_x000d_</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/797_x000d_</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/266_x000d_</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1269_x000d_</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/796_x000d_</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1094_x000d_</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/100_x000d_</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/943_x000d_</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/795_x000d_</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/90_x000d_</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/107_x000d_</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1278_x000d_</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1283_x000d_</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1224_x000d_</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1125_x000d_</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/944_x000d_</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/500_x000d_</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/765_x000d_</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/935_x000d_</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/435_x000d_</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/762_x000d_</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1092_x000d_</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/828_x000d_</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/568_x000d_</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/932_x000d_</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1285_x000d_</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1346_x000d_</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/729_x000d_</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1350_x000d_</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1347_x000d_</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1349_x000d_</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/1348_x000d_</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>https://recordati-plus.de/de_CH/recordati-article/93_x000d_</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/83_x000d_</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A320"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input_urls.xlsx
+++ b/input_urls.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,1299 +397,2053 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A320"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1">
+    <row r="1" xml:space="preserve">
       <c r="A1" t="str">
-        <v>production sitemap</v>
+        <v>Overview</v>
+      </c>
+      <c r="B1" t="str">
+        <v>OTC</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Products</v>
+      </c>
+      <c r="D1" t="str" xml:space="preserve">
+        <v xml:space="preserve">Articles
+</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate_x000d_</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/betadorm_x000d_</v>
+      </c>
+      <c r="C2" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/ortoton_x000d_</v>
+      </c>
+      <c r="D2" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wirkmechanismus-von-antipsychotika_x000d_</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate-wundheilung_x000d_</v>
+      </c>
+      <c r="B3" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/pflichttext-mirfulan-spray_x000d_</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/corifeo_x000d_</v>
+      </c>
+      <c r="D3" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/tief-eintauchen-support_x000d_</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/alle-inhalte-psychiatrie_x000d_</v>
+      </c>
+      <c r="B4" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/pflichttext-laxbene_x000d_</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/lercanidipin-omniapharm_x000d_</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/welche-funktions-beeintrachtigungen-entstehen-bei-einer-schizophrenie_x000d_</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/alle-inhalte-paediatrie_x000d_</v>
+      </c>
+      <c r="B5" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/pflichttext-rhinoPRONT_x000d_</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/metoprololtartrat-omniapharm_x000d_</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schizophrenie-wissen-am-mittwoch-pd-dr-med-wolfgang-strube_x000d_</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/alle-inhalte-kardiologie_x000d_</v>
+      </c>
+      <c r="B6" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/pflichttext-betadorm_x000d_</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/betadorm-d_x000d_</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wie-wirkt-sich-die-schizophrenie-auf-ihr-leben-aus_x000d_</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/alle-inhalte-orthopaedie_x000d_</v>
+      </c>
+      <c r="B7" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/laxbene_x000d_</v>
+      </c>
+      <c r="C7" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/xitix-lutschtabletten_x000d_</v>
+      </c>
+      <c r="D7" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/mythen-vs-wahrheiten_x000d_</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/alle-inhalte-urologie_x000d_</v>
+      </c>
+      <c r="B8" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/pflichttext-mirfulan-wund-und-heilsalbe_x000d_</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/jhp-rodler-japanisches-minzol_x000d_</v>
+      </c>
+      <c r="D8" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/snvw95d0pp0t6fbb7haquqrm_x000d_</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/alle-inhalte-erkaeltung_x000d_</v>
+      </c>
+      <c r="B9" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/mirfulan-hydrolind_x000d_</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/rhinopront_x000d_</v>
+      </c>
+      <c r="D9" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/b9yjnszvarmaekuiu1z8n77y_x000d_</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/alle-inhalte-sonstige-praeparate_x000d_</v>
+      </c>
+      <c r="B10" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/mirfulan-wund-und-heilsalbe_x000d_</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/zentramin_x000d_</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/mit-schizophrenie-leben-behandlung-von-geist-korper-und-seele_x000d_</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/mediathek-urologie_x000d_</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/mirfulan-salbenspray_x000d_</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/recosyn-max-forte-n_x000d_</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/verschreibung-von-reagila_x000d_</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praparate-gastroenterologie-0002_x000d_</v>
+      </c>
+      <c r="B12" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/risiko-melatonin_x000d_</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/mirfulan-spray-n_x000d_</v>
+      </c>
+      <c r="D12" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schlaflos-bei-schizophrenie-ursachen-und-losungen-aufspuren_x000d_</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/alle-inhalte-gastroenterologie_x000d_</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/stiftung-warentest_x000d_</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/citrafleet_x000d_</v>
+      </c>
+      <c r="D13" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/behandlung-und-remission_x000d_</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate-paediatrie_x000d_</v>
+      </c>
+      <c r="B14" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/Wie-die-Zeitumstellung-die-Gesundheit-beeintraechtigt_x000d_</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/binosto-brausetabletten_x000d_</v>
+      </c>
+      <c r="D14" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/diagnose_x000d_</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate-kardiologie_x000d_</v>
+      </c>
+      <c r="B15" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/erste-wahl-bei-verstopfung_x000d_</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/dolobene-ibu_x000d_</v>
+      </c>
+      <c r="D15" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/konsum-illegaler-drogen-und-schizophrenie_x000d_</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/recordati-plus-gated_x000d_</v>
+      </c>
+      <c r="B16" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/elektrolyte_x000d_</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/belociv_x000d_</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wie-wirken-Antipsychotika_x000d_</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate-orthopaedie_x000d_</v>
+      </c>
+      <c r="B17" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/neurodermitis-erkennen_x000d_</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/osteoplus_x000d_</v>
+      </c>
+      <c r="D17" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schizophrenie-statistiken_x000d_</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate-psychiatrie_x000d_</v>
+      </c>
+      <c r="B18" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/neurodermitis-behandeln_x000d_</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/beloc-zok_x000d_</v>
+      </c>
+      <c r="D18" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/gewichtszunahme-bei-schizophrenie-konnen-sie-vermeiden-dass-die-waage-ausschlagt_x000d_</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate-urologie_x000d_</v>
+      </c>
+      <c r="B19" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/dekubitus_x000d_</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/zanipress_x000d_</v>
+      </c>
+      <c r="D19" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schizophrenie-und-rauchen-sich-geschlagen-geben-oder-aufhoren_x000d_</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate-erkaeltung_x000d_</v>
+      </c>
+      <c r="B20" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/windeldermatitis-bei-babys-und-kleinkindern_x000d_</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/reagila_x000d_</v>
+      </c>
+      <c r="D20" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wqp12buhngji5pi98xicgb05_x000d_</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate-sonstige_x000d_</v>
+      </c>
+      <c r="B21" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/intertrigo-bei-uebergewicht_x000d_</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/spasuret_x000d_</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schizophrenie-wissen-am-mittwoch-1_x000d_</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/akademie_x000d_</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/windeldermatitis-bei-erwachsenen_x000d_</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/fortacin_x000d_</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uberblick-schizophrenie_x000d_</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/mediathek_x000d_</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/nasenspray-abhaengigkeit_x000d_</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/laxbene-junior_x000d_</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/klinischer-verlauf-der-krankheit_x000d_</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/praeparate-gastroenterologie_x000d_</v>
+      </c>
+      <c r="B24" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/schnupfenformen_x000d_</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/mirfulan-wund-und-heilsalbe_x000d_</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/warum-sollten-menschen-mit-schizophrenie-sport-treiben_x000d_</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/home-orthopaedie_x000d_</v>
+      </c>
+      <c r="B25" t="str">
+        <v>https://recordati-plus.de/de_DE/otc/rhinopront-kombi-tabletten_x000d_</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/collomack-topical_x000d_</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wie-kann-ich-jemandem-helfen-der-an-schizophrenie-erkrankt-ist_x000d_</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/recordati-plus-home_x000d_</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/mobloc_x000d_</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schizophrenie-in-schule-und-beruf_x000d_</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/home-paediatrie_x000d_</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/eligard_x000d_</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/umgang-mit-schizophrenie-und-schwangerschaft_x000d_</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/home-psychiatrie_x000d_</v>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/ambene-parenteral_x000d_</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/tipps-fur-eine-gesunde-lebensweise_x000d_</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://recordati-plus.de/de_DE/overview/home-urologie_x000d_</v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/lipotalon_x000d_</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schizophrenie-und-sucht_x000d_</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/recosyn_x000d_</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wahnvorstellungen-und-paranoia-gibt-es-einen-unterschied_x000d_</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/sportvis_x000d_</v>
+      </c>
+      <c r="D31" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/das-stigma-der-psychischen-krankheit-schizophrenie_x000d_</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/urorec_x000d_</v>
+      </c>
+      <c r="D32" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/essgewohnheiten-ernahrung-und-schizophrenie-sind-sie-was-sie-essen_x000d_</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/dexabene_x000d_</v>
+      </c>
+      <c r="D33" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schlafen-sie-sich-gesund-die-bedeutung-von-schlaf-fur-die-psychische-gesundheit_x000d_</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/flosa-balance_x000d_</v>
+      </c>
+      <c r="D34" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/alkohol-und-schizophrenie_x000d_</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/phospho-soda_x000d_</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/der-wirkmechanismus-von-cariprazin-reagila_x000d_</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/mirfulan-hydrolind-creme_x000d_</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/reagila-bei-patienten-mit-akuter-exazerbation-der-schizophrenie_x000d_</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v>https://recordati-plus.de/de_DE/produkte/claversal_x000d_</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/reagila-zur-langzeitbehandlung-von-schizophrenie_x000d_</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/reagila-kontrolliert-negativsymptome-bei-schizophrenie_x000d_</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/reagila-hilft-die-funktionsfahigkeit-im-alltag-zuruckzugewinnen-und-zu-erhalten_x000d_</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/die-wirkung-von-reagila-auf-primare-und-sekundare-negativsymptome-vs-pseudospezifitat_x000d_</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/das-sicherheits-und-vertraglichkeitsprofil-von-reagila_x000d_</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/die-behandlung-von-akathisie_x000d_</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/cariprazin-und-korpergewicht_x000d_</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/einleitung-der-behandlung-mit-reagila_x000d_</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/umstellung-auf-reagila_x000d_</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/dosierung-von-reagila_x000d_</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wechselwirkungen-mit-anderen-arzneimitteln_x000d_</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/faq-alles-auf-einen-klick_x000d_</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/webseminar-am-05-06-2024-doppeldiagnose-im-fokus_x000d_</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/recordati-uk-webinar-program-2024_x000d_</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/reactive-program-2024_x000d_</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/produkthotline_x000d_</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/das-candid-buch_x000d_</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/dosierungsempfehlung_x000d_</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/produktinformation-reagila_x000d_</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/informationsbroschure-fur-patientInnen_x000d_</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/reactive-live-webinar_x000d_</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <v/>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/willkommen_x000d_</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/intraartikulare-injektionstherapie-warum-der-duale-effekt-so-wirksam-ist_x000d_</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uronews-medizin-report-aktuell_x000d_</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v/>
+      </c>
+      <c r="B61" t="str">
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wirtschaftsbrief-gastroenterologie-ausgabe-4-2022_x000d_</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v/>
+      </c>
+      <c r="B62" t="str">
+        <v/>
+      </c>
+      <c r="C62" t="str">
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wirtschaftsbrief-gastroenterologie-ausgabe-5-2022_x000d_</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v/>
+      </c>
+      <c r="B63" t="str">
+        <v/>
+      </c>
+      <c r="C63" t="str">
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/fortgeschrittenes-prostatakarzinom_x000d_</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v/>
+      </c>
+      <c r="B64" t="str">
+        <v/>
+      </c>
+      <c r="C64" t="str">
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/anhaltende-wirksamkeit-von-leuprorelinacetat-als-subkutane-depotformulierung_x000d_</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://recordati-plus.de/de_AT/recordati-article/34_x000d_</v>
+        <v/>
+      </c>
+      <c r="B65" t="str">
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/eligard-marketingschulung-12-05-2022_x000d_</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/183_x000d_</v>
+        <v/>
+      </c>
+      <c r="B66" t="str">
+        <v/>
+      </c>
+      <c r="C66" t="str">
+        <v/>
+      </c>
+      <c r="D66" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wirtschaftsbrief-gastroenterologie-ausgabe-1-2022_x000d_</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/120_x000d_</v>
+        <v/>
+      </c>
+      <c r="B67" t="str">
+        <v/>
+      </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
+      <c r="D67" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wirtschaftsbrief-gastroenterologie-ausgabe-2-2022_x000d_</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/108_x000d_</v>
+        <v/>
+      </c>
+      <c r="B68" t="str">
+        <v/>
+      </c>
+      <c r="C68" t="str">
+        <v/>
+      </c>
+      <c r="D68" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wirtschaftsbrief-gastroenterologie-ausgabe-3-2022_x000d_</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/103_x000d_</v>
+        <v/>
+      </c>
+      <c r="B69" t="str">
+        <v/>
+      </c>
+      <c r="C69" t="str">
+        <v/>
+      </c>
+      <c r="D69" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schulungshandbuch-uro-bps-jan-2022_x000d_</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1275_x000d_</v>
+        <v/>
+      </c>
+      <c r="B70" t="str">
+        <v/>
+      </c>
+      <c r="C70" t="str">
+        <v/>
+      </c>
+      <c r="D70" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schulungshandbuch-fortacin-jan-2022_x000d_</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1262_x000d_</v>
+        <v/>
+      </c>
+      <c r="B71" t="str">
+        <v/>
+      </c>
+      <c r="C71" t="str">
+        <v/>
+      </c>
+      <c r="D71" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/laxbene-obstipation-grundlagen_x000d_</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1_x000d_</v>
+        <v/>
+      </c>
+      <c r="B72" t="str">
+        <v/>
+      </c>
+      <c r="C72" t="str">
+        <v/>
+      </c>
+      <c r="D72" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/laxbene-obstipations-coach_x000d_</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/74_x000d_</v>
+        <v/>
+      </c>
+      <c r="B73" t="str">
+        <v/>
+      </c>
+      <c r="C73" t="str">
+        <v/>
+      </c>
+      <c r="D73" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/wissenswertes-uber-prostatakrebs_x000d_</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/78_x000d_</v>
+        <v/>
+      </c>
+      <c r="B74" t="str">
+        <v/>
+      </c>
+      <c r="C74" t="str">
+        <v/>
+      </c>
+      <c r="D74" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/diagnose-von-prostatakrebs_x000d_</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1270_x000d_</v>
+        <v/>
+      </c>
+      <c r="B75" t="str">
+        <v/>
+      </c>
+      <c r="C75" t="str">
+        <v/>
+      </c>
+      <c r="D75" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/eligard-eine-stark-wirksame-und-gut-vertragliche-basistherapie_x000d_</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/37_x000d_</v>
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <v/>
+      </c>
+      <c r="D76" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/therapieoptionen-prostatakrebs_x000d_</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/367_x000d_</v>
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/innovative-kombination-fur-die-indikation-neurodermitis-kortisonfreie-therapieoption_x000d_</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/268_x000d_</v>
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <v/>
+      </c>
+      <c r="D78" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/oberflachliche-hauterkrankungen-in-der-praxis-wund-und-heilsalbe-seit-80-jahren-wirksam_x000d_</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/94_x000d_</v>
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <v/>
+      </c>
+      <c r="D79" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/androgendeprivation-bei-fortgeschrittenem-prostatakarzinom_x000d_</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/223_x000d_</v>
+      <c r="C80" t="str">
+        <v/>
+      </c>
+      <c r="D80" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/report-ruckenschmerzen-chronifizierende-verlaufe-vermeiden_x000d_</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/38_x000d_</v>
+      <c r="C81" t="str">
+        <v/>
+      </c>
+      <c r="D81" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/kasuistik-ortoton-forte-lumboischialgie_x000d_</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/40_x000d_</v>
+      <c r="C82" t="str">
+        <v/>
+      </c>
+      <c r="D82" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/dopaminrezeptor-subtypen-als-pharmakologische-angriffspunkte-von-antipsychotika_x000d_</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/76_x000d_</v>
+      <c r="C83" t="str">
+        <v/>
+      </c>
+      <c r="D83" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/eligard-epss-anwendungsvideo_x000d_</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/39_x000d_</v>
+      <c r="C84" t="str">
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/importance-of-adt-in-prostate-cancer-management_x000d_</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/373_x000d_</v>
+      <c r="C85" t="str">
+        <v/>
+      </c>
+      <c r="D85" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/management-of-prostate-cancer-optimal-control-of-testosterone-is-it-important_x000d_</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/369_x000d_</v>
+      <c r="C86" t="str">
+        <v/>
+      </c>
+      <c r="D86" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/management-of-prostate-cancer-the-added-value-of-the-atrigel-delivery-system_x000d_</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/35_x000d_</v>
+      <c r="C87" t="str">
+        <v/>
+      </c>
+      <c r="D87" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uberblick-zur-pharmakologie-wirksamkeit-und-sicherheit-von-cariprazin_x000d_</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/95_x000d_</v>
+      <c r="D88" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/kommt-das-medikament-ins-kind_x000d_</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/36_x000d_</v>
+      <c r="D89" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schizophrenie-wissen-am-mittwoch_x000d_</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/82_x000d_</v>
+      <c r="D90" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/ursachen-von-verstopfungen_x000d_</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/69_x000d_</v>
+      <c r="D91" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/medinota-training_x000d_</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1276_x000d_</v>
+      <c r="D92" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/reagila-dosierung_x000d_</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/97_x000d_</v>
+      <c r="D93" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/urotube-eligard-experteninterview-mit-prof-miller_x000d_</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/41_x000d_</v>
+      <c r="D94" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/ratgeber-verstopfung-bei-kindern_x000d_</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/84_x000d_</v>
+      <c r="D95" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uber-verstopfung_x000d_</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/137_x000d_</v>
+      <c r="D96" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/symptome-verstopfung_x000d_</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/98_x000d_</v>
+      <c r="D97" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/leben-mit-verstopfung_x000d_</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/99_x000d_</v>
+      <c r="D98" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/laxbene-produktportfolio-schulung_x000d_</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/532_x000d_</v>
+      <c r="D99" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/mirfulan-indikationswissen_x000d_</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/109_x000d_</v>
+      <c r="D100" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/mirfulan-produktinfo_x000d_</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/110_x000d_</v>
+      <c r="D101" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/verstopfung-bei-kindern-tipps-fuer-jeden-tag_x000d_</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/499_x000d_</v>
+      <c r="D102" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/die-akutphase-kontrollieren-langfristig-rehabilitieren_x000d_</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/221_x000d_</v>
+      <c r="D103" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/therapieoptionen-bei-verstopfung_x000d_</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/181_x000d_</v>
+      <c r="D104" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/verstopfung-mit-laxbene-behandeln_x000d_</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/182_x000d_</v>
+      <c r="D105" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schizophrenie-ratgeber_x000d_</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/175_x000d_</v>
+      <c r="D106" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uber-schizophrenie_x000d_</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/176_x000d_</v>
+      <c r="D107" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/symptome-schizophrenie_x000d_</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/198_x000d_</v>
+      <c r="D108" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/therapieoptionen-schizophrenie_x000d_</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/102_x000d_</v>
+      <c r="D109" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/tipps-fur-schizophrenie-betroffene-und-angehorige_x000d_</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/372_x000d_</v>
+      <c r="D110" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/erkaltung-ratgeber_x000d_</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/186_x000d_</v>
+      <c r="D111" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uber-erkaltung_x000d_</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/184_x000d_</v>
+      <c r="D112" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/symptome-erkaltung_x000d_</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/187_x000d_</v>
+      <c r="D113" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/ursachen_x000d_</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/220_x000d_</v>
+      <c r="D114" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/tipps-fur-jeden-tag_x000d_</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1263_x000d_</v>
+      <c r="D115" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/haufig-gestellte-fragen_x000d_</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/174_x000d_</v>
+      <c r="D116" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/behandlungsmoglichkeiten-bei-einer-erkaltung_x000d_</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/177_x000d_</v>
+      <c r="D117" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uber-rhinopront_x000d_</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/89_x000d_</v>
+      <c r="D118" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uber-JHP-rodler_x000d_</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/218_x000d_</v>
+      <c r="D119" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/gesundheitsratgeber-arthrose_x000d_</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/199_x000d_</v>
+      <c r="D120" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uber-arthrose_x000d_</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1277_x000d_</v>
+      <c r="D121" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/symptome-arthrose_x000d_</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/75_x000d_</v>
+      <c r="D122" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/ursachen-arthrose_x000d_</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/189_x000d_</v>
+      <c r="D123" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/therapieoptionen-arthrose_x000d_</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/333_x000d_</v>
+      <c r="D124" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/arthrose-im-alltag_x000d_</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/374_x000d_</v>
+      <c r="D125" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/service_x000d_</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/188_x000d_</v>
+      <c r="D126" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/faq_x000d_</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/370_x000d_</v>
+      <c r="D127" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uber-recosyn_x000d_</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/368_x000d_</v>
+      <c r="D128" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/prostatakrebs-ratgeber_x000d_</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/565_x000d_</v>
+      <c r="D129" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uber-prostatakrebs_x000d_</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/77_x000d_</v>
+      <c r="D130" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/diagnostik_x000d_</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1271_x000d_</v>
+      <c r="D131" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/pathophysiologie_x000d_</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1273_x000d_</v>
+      <c r="D132" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/therapie_x000d_</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/258_x000d_</v>
+      <c r="D133" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/komorbiditaten_x000d_</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/564_x000d_</v>
+      <c r="D134" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/epidemiologie_x000d_</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/227_x000d_</v>
+      <c r="D135" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/klassifikation_x000d_</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1274_x000d_</v>
+      <c r="D136" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/obstipation-bei-kindern_x000d_</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/324_x000d_</v>
+      <c r="D137" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/services-citrafleet_x000d_</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/259_x000d_</v>
+      <c r="D138" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schau-nach-vorne_x000d_</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/260_x000d_</v>
+      <c r="D139" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/eligard_x000d_</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1264_x000d_</v>
+      <c r="D140" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/services-recosyn_x000d_</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/269_x000d_</v>
+      <c r="D141" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/teif-eintauchen-evidenz-und-erfahrung_x000d_</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/228_x000d_</v>
+      <c r="D142" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/siex93oimnzs2p76387jxtxq_x000d_</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/315_x000d_</v>
+      <c r="D143" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/iyotgsh4stpqzfrpabtrkwel_x000d_</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/301_x000d_</v>
+      <c r="D144" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/tief-eintauchen-kontrolle_x000d_</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/321_x000d_</v>
+      <c r="D145" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/tief-eintauchen-wirtschaftlichkeit_x000d_</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/300_x000d_</v>
+      <c r="D146" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/arthrose-workout-ubungen-fur-zuhause-fur-ihre-patienten_x000d_</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/240_x000d_</v>
+      <c r="D147" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/produktvideo-recosyn_x000d_</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/375_x000d_</v>
+      <c r="D148" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/jetzt-neu-transdiagnostisches-tool_x000d_</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/317_x000d_</v>
+      <c r="D149" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/reale-falle-verfilmt_x000d_</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/251_x000d_</v>
+      <c r="D150" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/klinische-daten_x000d_</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/319_x000d_</v>
+      <c r="D151" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/impressum_x000d_</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/327_x000d_</v>
+      <c r="D152" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/obstipation-physiologie-der-darmentleerung_x000d_</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/306_x000d_</v>
+      <c r="D153" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/obstipation-definition-und-diagnose_x000d_</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/322_x000d_</v>
+      <c r="D154" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/obstipation-therapie-und-fazit_x000d_</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/311_x000d_</v>
+      <c r="D155" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/pharmakologische-psychosetherapie-in-der-praxis_x000d_</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/257_x000d_</v>
+      <c r="D156" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/ICD-10-zu-ICD-11-was-kommt-auf-uns-zu_x000d_</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/366_x000d_</v>
+      <c r="D157" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Eligard-LITERATURSERVICE-URO-bryant_x000d_</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/304_x000d_</v>
+      <c r="D158" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Eligard-LITERATURSERVICE-URO-laurance-klotz_x000d_</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/310_x000d_</v>
+      <c r="D159" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Eligard-LITERATURSERVICE-URO-Christopher-M-Pieczonka_x000d_</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/307_x000d_</v>
+      <c r="D160" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Eligard-LITERATURSERVICE-URO-Neal-D-Shore_x000d_</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/314_x000d_</v>
+      <c r="D161" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Professor-Bertrand-Tombal-Added-Value-of-Atrigel_x000d_</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/325_x000d_</v>
+      <c r="D162" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Professor-Bertrand-Tombal-Control-of-Testosterone_x000d_</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/323_x000d_</v>
+      <c r="D163" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Professor-Bertrand-Tombal-importance-of-achieving-low-t-level_x000d_</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/313_x000d_</v>
+      <c r="D164" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uebersicht-uropraxis-professionell_x000d_</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/248_x000d_</v>
+      <c r="D165" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/extracta-urologica-professionell_x000d_</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/309_x000d_</v>
+      <c r="D166" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Uebersicht-LITERATURSERVICE-URO_x000d_</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/265_x000d_</v>
+      <c r="D167" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/uebersicht-urologie-publikationen_x000d_</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/135_x000d_</v>
+      <c r="D168" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/unser-team-psychiatrie_x000d_</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/85_x000d_</v>
+      <c r="D169" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/produktvideo-recosyn-max-forte_x000d_</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/242_x000d_</v>
+      <c r="D170" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/fallbesprechung-psychose-mit-eifersuchtswahn_x000d_</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/303_x000d_</v>
+      <c r="D171" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/fallbesprechung-videos-zu-patientenfallen_x000d_</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/178_x000d_</v>
+      <c r="D172" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/videos-zu-patientenfallen-doppeldiagnose_x000d_</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1265_x000d_</v>
+      <c r="D173" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Internationale-Webinare-auf-einen-Blick_x000d_</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/197_x000d_</v>
+      <c r="D174" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Einverstaendniserklaerung-zur-Inanspruchnahme-einer-privataerztlichen-Behandlung_x000d_</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/632_x000d_</v>
+      <c r="D175" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Patientenaufklaerung-behandlung-mit-einer-intraartikulaeren-Injektion-von-Hyaluronsaeure._x000d_</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/179_x000d_</v>
+      <c r="D176" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Recosyn-Patientenbroschuere_x000d_</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/87_x000d_</v>
+      <c r="D177" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Recosyn-Arthrose-uebungen_x000d_</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/995_x000d_</v>
+      <c r="D178" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/schau-nach-vorne-aerzte_x000d_</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1286_x000d_</v>
+      <c r="D179" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Pflicht-zur-Suche-eines-Notfalldienst-Vertreters_x000d_</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/91_x000d_</v>
+      <c r="D180" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Neues-Zweitmeinungsverfahren-bei-Prostatakarzinom_x000d_</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/70_x000d_</v>
+      <c r="D181" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Schmerzreduktion-bei-Kniearthrose_x000d_</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/96_x000d_</v>
+      <c r="D182" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Evaluation-of-Safety-and-Performance-of-Hyaluronic-Acid_x000d_</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1279_x000d_</v>
+      <c r="D183" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Observational-Analysis-of-Intra-articular-Hyaluronic-Acid_x000d_</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/318_x000d_</v>
+      <c r="D184" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/hoehere-portopauschalen-ab-01-01-2025_x000d_</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/136_x000d_</v>
+      <c r="D185" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/UroNautic-Update-der-ESMO-Guideline-Nierenzellkarzinom_x000d_</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/930_x000d_</v>
+      <c r="D186" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/UroNautic-Proktologie-fuer-Urologen_x000d_</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/934_x000d_</v>
+      <c r="D187" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/UroNautic-Neo-Adjuvante-Therapie-bei-Prostata-Ca_x000d_</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1191_x000d_</v>
+      <c r="D188" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/GONARTHROSE-Erfolgreiche-Behandlung-mit-hochkonzentrierter-und-hochviskoeser-Hyaluronsaure_x000d_</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/194_x000d_</v>
+      <c r="D189" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Schmerzlinderung-und-Wiederherstellung-der-Mobilitaet_x000d_</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/219_x000d_</v>
+      <c r="D190" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/IntraartikulaereHyaluronsaeure-Injektion-bei-Osteoarthrose_x000d_</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/195_x000d_</v>
+      <c r="D191" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/obstipation-bei-kindern-nach-rom-IV_x000d_</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/946_x000d_</v>
+      <c r="D192" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Diagnose-Obstipation-und-Warnzeichen-fuer-organische-Ursachen_x000d_</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/212_x000d_</v>
+      <c r="D193" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Obstipation---Keine-paediatrische-Seltenheit_x000d_</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/113_x000d_</v>
+      <c r="D194" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Teufelskreis-der-paediatrischen-Obstipation_x000d_</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/180_x000d_</v>
+      <c r="D195" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Therapie-der-funktionellen-Obstipation_x000d_</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/768_x000d_</v>
+      <c r="D196" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Komorbide-Stoerungen-bei-funktioneller-Obstipation_x000d_</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/263_x000d_</v>
+      <c r="D197" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Macrogol-die-1-Wahl-bei-Obstipation_x000d_</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/937_x000d_</v>
+      <c r="D198" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Praktische-Paediatrie-August-2021_x000d_</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1287_x000d_</v>
+      <c r="D199" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Salz-und-Effekte-von-zu-viel-Salz_x000d_</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/633_x000d_</v>
+      <c r="D200" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Comparison-of-the-effectiveness-of-polyethylene-glycol-with-and-without-electrolytes-in-constipation_x000d_</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/635_x000d_</v>
+      <c r="D201" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Funktionelle_Obstipation_und_Stuhlinkontinenz_im_Kindes-und_Jugendalter_x000d_</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/929_x000d_</v>
+      <c r="D202" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Laxbene-Junior-Macrogol_x000d_</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/71_x000d_</v>
+      <c r="D203" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Laxbene-Junior-Ab-8-Jahren_x000d_</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/80_x000d_</v>
+      <c r="D204" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Laxbene-Junior-ab-6-Monaten_x000d_</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/308_x000d_</v>
+      <c r="D205" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Service-Paket-Info_x000d_</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/193_x000d_</v>
+      <c r="D206" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Spannende-Gewinnspiele_x000d_</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/73_x000d_</v>
+      <c r="D207" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Service-Paket-Bestellung_x000d_</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/931_x000d_</v>
+      <c r="D208" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Exklusive-Ratgeber_x000d_</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/940_x000d_</v>
+      <c r="D209" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/mirfulan-windeldermatitis-bei-erwachsenen_x000d_</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/210_x000d_</v>
+      <c r="D210" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Betadorm-Risiko-Melatonin_x000d_</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/830_x000d_</v>
+      <c r="D211" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Eligard-LITERATURSERVICE-URO-tunn_x000d_</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/316_x000d_</v>
+      <c r="D212" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/LHRH-Agonisten-Wirkweise_x000d_</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/72_x000d_</v>
+      <c r="D213" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Paediatrie-Gewinnspiel-Influencer_x000d_</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/696_x000d_</v>
+      <c r="D214" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Einladung-Webinar-Frueherkennung_x000d_</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/196_x000d_</v>
+      <c r="D215" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/SUD-Broschuere-Die-Rolle-der-Dopamin-D3-Rezeptoren_x000d_</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/101_x000d_</v>
+      <c r="D216" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/CUD-Broschuere-Cariprazin-bei-der-Behandlung-von-Schizophrenie-mit-bestehendem-Cannabis-Abusus_x000d_</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1266_x000d_</v>
+      <c r="D217" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Webinar-Frueherkennung-von-Psychosen_x000d_</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/172_x000d_</v>
+      <c r="D218" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Kommunikation-mit-tumorkranken-Patienten_x000d_</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/769_x000d_</v>
+      <c r="D219" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Webinar-Therapeutisches-Drug-Monitoring_x000d_</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/938_x000d_</v>
+      <c r="D220" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Psychiatrie-Fachwissen-zum-Hoeren_x000d_</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/829_x000d_</v>
+      <c r="D221" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Ueberraschung-in-der-Apotheke-Schmelz-statt-Filmtabletten_x000d_</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/763_x000d_</v>
+      <c r="D222" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Drei_Teilzulassungen_auch_im_entsperrten_Planungsbereich_unzulaessig_x000d_</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/928_x000d_</v>
+      <c r="D223" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Wissenswertes_zur_elektronischen_Ersatzbescheinigung_x000d_</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/767_x000d_</v>
+      <c r="D224" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Abrechnung_fachfremder_Leistungen_x000d_</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/766_x000d_</v>
+      <c r="D225" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EAU2025-Congress-Booklet_x000d_</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/948_x000d_</v>
+      <c r="D226" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Diagnose-Prostatakrebs-und-jetzt_x000d_</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/942_x000d_</v>
+      <c r="D227" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Ernaehrung-bei-Prostatakrebs_x000d_</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1281_x000d_</v>
+      <c r="D228" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Urologie-Podcast_x000d_</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/945_x000d_</v>
+      <c r="D229" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Gewinnspiel-Mai-Juni_x000d_</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/305_x000d_</v>
+      <c r="D230" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Fitnessuebugen-bei-Prostatakrebs_x000d_</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/949_x000d_</v>
+      <c r="D231" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Schau_nach_vorne_rechtliche_und_soziale_Fragen_x000d_</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/950_x000d_</v>
+      <c r="D232" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Schau-nach-vorne-Sexualitaet-neu-entdecken_x000d_</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/190_x000d_</v>
+      <c r="D233" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Schau-nach-vorne-Auswirkungen-Diagnose-Prostatakrebs_x000d_</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/88_x000d_</v>
+      <c r="D234" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Genesung-nach-der-Krebstherapie_x000d_</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/764_x000d_</v>
+      <c r="D235" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Krebs_eine_Belastung_fuer_die_Partnerschaft_x000d_</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/79_x000d_</v>
+      <c r="D236" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Webinar-Series-3_x000d_</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/941_x000d_</v>
+      <c r="D237" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Webinar-Series-2_x000d_</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/933_x000d_</v>
+      <c r="D238" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Uebersicht-Extracta-Schizophrenia_x000d_</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/927_x000d_</v>
+      <c r="D239" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Publikationen_zum_Einsatz_von_Cariprazin_x000d_</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/498_x000d_</v>
+      <c r="D240" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EAU2025-Early-detection-and-diagnostic-pathways-in-prostate-cancer-revisited_x000d_</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1267_x000d_</v>
+      <c r="D241" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EAU2025-Clinically-relevant-questions-in-the-management-of-advanced-prostate-cancer_x000d_</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/371_x000d_</v>
+      <c r="D242" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EAU2025-APCCC-meets-EAU_x000d_</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1288_x000d_</v>
+      <c r="D243" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EAU2025-11th-ESO-Prostate-Cancer-Observatory_x000d_</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/81_x000d_</v>
+      <c r="D244" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EAU2025-Progress-and-controversies-in-oncological-urology_x000d_</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/960_x000d_</v>
+      <c r="D245" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EAU2025-On-the-horizon-Ongoing-trials-in-urology_x000d_</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1093_x000d_</v>
+      <c r="D246" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EAU2025-Navigating-Real-World-challenges-in-urology-Optimising-patient-care-with-limited-resources_x000d_</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1260_x000d_</v>
+      <c r="D247" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/datenschutz_x000d_</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/211_x000d_</v>
+      <c r="D248" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Wirtschaftlichkeitsbonus-Labor_x000d_</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/320_x000d_</v>
+      <c r="D249" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Bene-News-Bene-Familie_x000d_</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/312_x000d_</v>
+      <c r="D250" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Bene-faehrt-in-den-Urlaub_x000d_</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/947_x000d_</v>
+      <c r="D251" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Webseminar-Kniegelenksarthrose-Prof-Dr-med-Markus-Gesslein_x000d_</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/326_x000d_</v>
+      <c r="D252" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Bene-Podcast-Uebersicht_x000d_</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/302_x000d_</v>
+      <c r="D253" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Frueherkennung-kolorektales-Karzinom_x000d_</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/105_x000d_</v>
+      <c r="D254" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/aktuelle_Aenderungen_bei_der_Videosprechstunde_x000d_</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/663_x000d_</v>
+      <c r="D255" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Benes-Witz-des-Monats_x000d_</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1258_x000d_</v>
+      <c r="D256" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EPA_Kongress_2025_Schizophrenie_und_Sucht_x000d_</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1259_x000d_</v>
+      <c r="D257" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/Fortbildungen_vor_Ort_23_Juli_2025_x000d_</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/208_x000d_</v>
+      <c r="D258" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EPA_Kongress_2025_Nebenwirkungen_x000d_</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/636_x000d_</v>
+      <c r="D259" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EPA_Kongress_2025_Kuenstliche_Intelligenz_x000d_</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/861_x000d_</v>
+      <c r="D260" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EPA_Kongress_2025_Partialagonisten_x000d_</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/994_x000d_</v>
+      <c r="D261" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/UroNautic_Nationale_Veranstaltung_x000d_</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/638_x000d_</v>
+      <c r="D262" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EPA_Kongress_2025_Who_cares_for_the_carers_x000d_</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1282_x000d_</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/209_x000d_</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/895_x000d_</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/566_x000d_</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/666_x000d_</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/86_x000d_</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/432_x000d_</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/567_x000d_</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/92_x000d_</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1261_x000d_</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1268_x000d_</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1280_x000d_</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/433_x000d_</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/434_x000d_</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/597_x000d_</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/634_x000d_</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1257_x000d_</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/598_x000d_</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/637_x000d_</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/894_x000d_</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/939_x000d_</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/896_x000d_</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/961_x000d_</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/664_x000d_</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/665_x000d_</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/797_x000d_</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/266_x000d_</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1269_x000d_</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/796_x000d_</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1094_x000d_</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/100_x000d_</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/943_x000d_</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/795_x000d_</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/90_x000d_</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/107_x000d_</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1278_x000d_</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1283_x000d_</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1224_x000d_</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1125_x000d_</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/944_x000d_</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/500_x000d_</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/765_x000d_</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/935_x000d_</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/435_x000d_</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/762_x000d_</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1092_x000d_</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/828_x000d_</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/568_x000d_</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/932_x000d_</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1285_x000d_</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1346_x000d_</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/729_x000d_</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1350_x000d_</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1347_x000d_</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1349_x000d_</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/1348_x000d_</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="str">
-        <v>https://recordati-plus.de/de_CH/recordati-article/93_x000d_</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="str">
-        <v>https://recordati-plus.de/de_DE/recordati-article/83_x000d_</v>
+      <c r="D263" t="str">
+        <v>https://recordati-plus.de/de_DE/recordati-article/EPA-Kongress-2025-Kognitive-Defizite</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A320"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D263"/>
   </ignoredErrors>
 </worksheet>
 </file>